--- a/Rv-Pre_tomcat9/benchmarks进展.xlsx
+++ b/Rv-Pre_tomcat9/benchmarks进展.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="详细数据表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="181">
   <si>
     <t>test case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pingpong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>racetracer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,15 +153,488 @@
     <t>java.lang.RuntimeException</t>
   </si>
   <si>
+    <t>sor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtomicityAccount</t>
+  </si>
+  <si>
+    <t>Bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dstest.IdentityHashMapDeadlockTest</t>
+  </si>
+  <si>
+    <t>dstest.LinkedHashMapDeadlockTest</t>
+  </si>
+  <si>
+    <t>dstest.LinkedListDeadlockTest</t>
+  </si>
+  <si>
+    <t>dstest.SetDeadlockTest</t>
+  </si>
+  <si>
+    <t>dstest.StackDeadlockTest</t>
+  </si>
+  <si>
+    <t>dstest.TreeMapDeadlockTest</t>
+  </si>
+  <si>
+    <t>dstest.WeakHashMapDeadlockTest</t>
+  </si>
+  <si>
+    <t>jpf_test_cases.readerswriters.RWVSNTest</t>
+  </si>
+  <si>
+    <t>jpf_test_cases.replicatedcasestudies.Generic</t>
+  </si>
+  <si>
+    <t>CyclicDemo</t>
+  </si>
+  <si>
+    <t>Test147</t>
+  </si>
+  <si>
+    <t>Test149</t>
+  </si>
+  <si>
+    <t>Test1890</t>
+  </si>
+  <si>
+    <t>TestAtomicity1</t>
+  </si>
+  <si>
+    <t>TestAtomicity2</t>
+  </si>
+  <si>
+    <t>TestAtomicity3</t>
+  </si>
+  <si>
+    <t>TestAtomicity4</t>
+  </si>
+  <si>
+    <t>TestAtomicity5</t>
+  </si>
+  <si>
+    <t>TestAtomicity6</t>
+  </si>
+  <si>
+    <t>TestAtomicity7</t>
+  </si>
+  <si>
+    <t>TestAtomicity8</t>
+  </si>
+  <si>
+    <t>TestAtomicity9</t>
+  </si>
+  <si>
+    <t>TestAtomicity10</t>
+  </si>
+  <si>
+    <t>TestAtomicity11</t>
+  </si>
+  <si>
+    <t>TestAtomicity12</t>
+  </si>
+  <si>
+    <t>TestAtomicity13</t>
+  </si>
+  <si>
+    <t>TestAtomicity14</t>
+  </si>
+  <si>
+    <t>TestAtomicity15</t>
+  </si>
+  <si>
+    <t>TestAtomicity16</t>
+  </si>
+  <si>
+    <t>TestAtomicity17</t>
+  </si>
+  <si>
+    <t>TestAtomicity18</t>
+  </si>
+  <si>
+    <t>TestAtomicity19</t>
+  </si>
+  <si>
+    <t>TestAtomicity20</t>
+  </si>
+  <si>
+    <t>TestDeadlock1</t>
+  </si>
+  <si>
+    <t>TestDeadlock1a</t>
+  </si>
+  <si>
+    <t>TestDeadlock1b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDeadlock2</t>
+  </si>
+  <si>
+    <t>TestDeadlock2a</t>
+  </si>
+  <si>
+    <t>TestDeadlock3</t>
+  </si>
+  <si>
+    <t>TestDeadlock4</t>
+  </si>
+  <si>
+    <t>TestDeadlock4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDeadlock5</t>
+  </si>
+  <si>
+    <t>TestDeadlock6</t>
+  </si>
+  <si>
+    <t>TestDeadlock7</t>
+  </si>
+  <si>
+    <t>TestDeadlock8</t>
+  </si>
+  <si>
+    <t>TestLockRace1</t>
+  </si>
+  <si>
+    <t>TestLogInfo</t>
+  </si>
+  <si>
+    <t>airlines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crawler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diningphil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache4j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ftpserver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jigsaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>derby</t>
+    <t>raytracer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telefonica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception in thread "Thread-4" benchmarks.instrumented.java.util.ConcurrentModificationException</t>
+  </si>
+  <si>
+    <t>benchmarks.hedc.Tester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.MTArrayListTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.MTLinkedHashSetTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.MTListTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.MTSetTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.MTTreeSetTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.MTVectorTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.sor.Sor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.JGFMolDynBenchSizeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.JGFMonteCarloBenchSizeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.JGFRayTracerBenchSizeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.ArrayListDeadlock2Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.ArrayListDeadlockTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.HashMapDeadlockTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.MTHashtableTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.MTLinkedListInfiniteLoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.dstest.MTSBTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.JGFRayTracerBenchSizeB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.AtomicityTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.elevator.Elevator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.harness.JigsawHarnessPretex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.ethz.util.Estimator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.ethz.util.EtcUtil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.ethz.util.Ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.ethz.util.SerializePerformanceTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.ethz.util.SmartRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.ethz.util.URLConnectionReader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.Messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.Rag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.RandomDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.regexp.Regexp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.SohoSynoptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.hedc.Tester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.jpf_test_cases.boundedbuffer.BoundedBuffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.jpf_test_cases.nestedmonitors.NestedMonitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.jpf_test_cases.rax.START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.philo.Philo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.philo.StartError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.raytracer.RayTracer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.stringbuffer.StringBufferTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.tsp.Tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.ChessTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.JGFAllSizeA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.JGFAllSizeB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.SimpleExample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmarks.TestMe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avrora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batik</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eclipse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jython</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lusearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,563 +642,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradebeans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradesoap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>xalan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lusearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eclipse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtomicityAccount</t>
-  </si>
-  <si>
-    <t>Bank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dstest.IdentityHashMapDeadlockTest</t>
-  </si>
-  <si>
-    <t>dstest.LinkedHashMapDeadlockTest</t>
-  </si>
-  <si>
-    <t>dstest.LinkedListDeadlockTest</t>
-  </si>
-  <si>
-    <t>dstest.SetDeadlockTest</t>
-  </si>
-  <si>
-    <t>dstest.StackDeadlockTest</t>
-  </si>
-  <si>
-    <t>dstest.TreeMapDeadlockTest</t>
-  </si>
-  <si>
-    <t>dstest.WeakHashMapDeadlockTest</t>
-  </si>
-  <si>
-    <t>jpf_test_cases.readerswriters.RWVSNTest</t>
-  </si>
-  <si>
-    <t>jpf_test_cases.replicatedcasestudies.Generic</t>
-  </si>
-  <si>
-    <t>CyclicDemo</t>
-  </si>
-  <si>
-    <t>Test147</t>
-  </si>
-  <si>
-    <t>Test149</t>
-  </si>
-  <si>
-    <t>Test1890</t>
-  </si>
-  <si>
-    <t>TestAtomicity1</t>
-  </si>
-  <si>
-    <t>TestAtomicity2</t>
-  </si>
-  <si>
-    <t>TestAtomicity3</t>
-  </si>
-  <si>
-    <t>TestAtomicity4</t>
-  </si>
-  <si>
-    <t>TestAtomicity5</t>
-  </si>
-  <si>
-    <t>TestAtomicity6</t>
-  </si>
-  <si>
-    <t>TestAtomicity7</t>
-  </si>
-  <si>
-    <t>TestAtomicity8</t>
-  </si>
-  <si>
-    <t>TestAtomicity9</t>
-  </si>
-  <si>
-    <t>TestAtomicity10</t>
-  </si>
-  <si>
-    <t>TestAtomicity11</t>
-  </si>
-  <si>
-    <t>TestAtomicity12</t>
-  </si>
-  <si>
-    <t>TestAtomicity13</t>
-  </si>
-  <si>
-    <t>TestAtomicity14</t>
-  </si>
-  <si>
-    <t>TestAtomicity15</t>
-  </si>
-  <si>
-    <t>TestAtomicity16</t>
-  </si>
-  <si>
-    <t>TestAtomicity17</t>
-  </si>
-  <si>
-    <t>TestAtomicity18</t>
-  </si>
-  <si>
-    <t>TestAtomicity19</t>
-  </si>
-  <si>
-    <t>TestAtomicity20</t>
-  </si>
-  <si>
-    <t>TestDeadlock1</t>
-  </si>
-  <si>
-    <t>TestDeadlock1a</t>
-  </si>
-  <si>
-    <t>TestDeadlock1b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDeadlock2</t>
-  </si>
-  <si>
-    <t>TestDeadlock2a</t>
-  </si>
-  <si>
-    <t>TestDeadlock3</t>
-  </si>
-  <si>
-    <t>TestDeadlock4</t>
-  </si>
-  <si>
-    <t>TestDeadlock4b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDeadlock5</t>
-  </si>
-  <si>
-    <t>TestDeadlock6</t>
-  </si>
-  <si>
-    <t>TestDeadlock7</t>
-  </si>
-  <si>
-    <t>TestDeadlock8</t>
-  </si>
-  <si>
-    <t>TestLockRace1</t>
-  </si>
-  <si>
-    <t>TestLogInfo</t>
-  </si>
-  <si>
-    <t>airlines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crawler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diningphil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elevator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hedc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache4j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ftpserver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>raytracer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telefonica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103（79）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5（4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3（0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34（2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5（1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRace.TestRace11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception in thread "Thread-4" benchmarks.instrumented.java.util.ConcurrentModificationException</t>
-  </si>
-  <si>
-    <t>benchmarks.JGFMolDynBenchSizeB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.Tester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.MTArrayListTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.MTLinkedHashSetTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.MTListTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.MTSetTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.MTTreeSetTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.MTVectorTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.sor.Sor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.JGFMolDynBenchSizeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.JGFMonteCarloBenchSizeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.JGFRayTracerBenchSizeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.ArrayListDeadlock2Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.ArrayListDeadlockTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.HashMapDeadlockTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.MTHashtableTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.MTLinkedListInfiniteLoop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.dstest.MTSBTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.JGFMonteCarloBenchSizeB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.JGFRayTracerBenchSizeB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Validation failed</t>
-  </si>
-  <si>
-    <t>benchmarks.AtomicityTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.elevator.Elevator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.harness.JigsawHarnessPretex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.ethz.util.Estimator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.ethz.util.EtcUtil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.ethz.util.Ftp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.ethz.util.SerializePerformanceTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.ethz.util.SmartRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.ethz.util.URLConnectionReader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.Messages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.Rag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.RandomDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.regexp.Regexp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.SohoSynoptic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.hedc.Tester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.jpf_test_cases.boundedbuffer.BoundedBuffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.jpf_test_cases.nestedmonitors.NestedMonitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.jpf_test_cases.rax.START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.philo.Philo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.philo.StartError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.raytracer.RayTracer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.stringbuffer.StringBufferTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.tsp.Tsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.ChessTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.JGFAllSizeA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.JGFAllSizeB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.SimpleExample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>benchmarks.TestMe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avrora</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batik</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eclipse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jython</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lusearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sunflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradebeans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradesoap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xalan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9(f)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
+    <t>testRace.TestRace12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testRace.TestRace13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>derby3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groovy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbcp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groovy5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groovy6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log4j1</t>
+  </si>
+  <si>
+    <t>log4j3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,6 +843,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1216,58 +1186,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C148" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I155" sqref="I155"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1277,7 +1247,9 @@
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1300,20 +1272,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="C4" s="5">
+        <v>36</v>
+      </c>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1323,12 +1297,14 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
       <c r="B5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="C5" s="5">
+        <v>26</v>
+      </c>
       <c r="D5" s="5">
         <v>2</v>
       </c>
@@ -1344,18 +1320,20 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
       <c r="B6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25</v>
+      </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1365,18 +1343,20 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="C7" s="5">
+        <v>29</v>
+      </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1386,12 +1366,14 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="C8" s="5">
+        <v>33</v>
+      </c>
       <c r="D8" s="5">
         <v>2</v>
       </c>
@@ -1407,18 +1389,20 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C9" s="5">
+        <v>34</v>
+      </c>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1428,12 +1412,14 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="C10" s="5">
+        <v>37</v>
+      </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
@@ -1449,12 +1435,14 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45</v>
+      </c>
       <c r="D11" s="5">
         <v>2</v>
       </c>
@@ -1470,12 +1458,14 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
       <c r="B12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44</v>
+      </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
@@ -1491,18 +1481,20 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44</v>
+      </c>
       <c r="D13" s="5">
         <v>2</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1512,18 +1504,20 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
       <c r="B14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44</v>
+      </c>
       <c r="D14" s="5">
         <v>2</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1533,75 +1527,77 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
+    <row r="15" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="12">
+        <v>78</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
         <v>2</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
-        <v>27</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
-        <v>5</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
-        <v>4</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="12">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
+        <v>3</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
       <c r="B17" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
       <c r="B18" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
       <c r="D18" s="5">
         <v>27</v>
       </c>
@@ -1612,248 +1608,280 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="C19" s="5">
+        <v>31</v>
+      </c>
       <c r="D19" s="5">
         <v>22</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
       <c r="B20" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="C20" s="5">
+        <v>89</v>
+      </c>
       <c r="D20" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="C21" s="5">
+        <v>83</v>
+      </c>
       <c r="D21" s="5">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="F21" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
       <c r="B22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="C22" s="5">
+        <v>31</v>
+      </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
       <c r="B23" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="C23" s="5">
+        <v>62</v>
+      </c>
       <c r="D23" s="5">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C24" s="5">
+        <v>248</v>
+      </c>
       <c r="D24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>143</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
       <c r="B25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>118</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1351</v>
+      </c>
       <c r="D25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5">
         <v>2</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5">
-        <v>5</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3617</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
       <c r="B27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1922</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5">
+        <v>4</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5">
+        <v>5</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+    <row r="28" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1922</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12">
+        <v>1</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1922</v>
+      </c>
+      <c r="D29" s="12">
+        <v>10</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12">
+        <v>4</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
       <c r="B30" s="5" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
+      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1865,25 +1893,29 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5">
+        <v>5</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
       <c r="B33" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1895,25 +1927,29 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1925,10 +1961,10 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
       <c r="B36" s="5" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1940,86 +1976,70 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
       <c r="B37" s="5" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="5">
-        <v>6</v>
-      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
       <c r="B38" s="5" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
       <c r="B39" s="5" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="5">
-        <v>3</v>
-      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5">
-        <v>1</v>
-      </c>
+      <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
       <c r="B40" s="5" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="5">
-        <v>0</v>
-      </c>
+      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
+    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
       <c r="B41" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5">
@@ -2030,19 +2050,19 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
       <c r="B42" s="5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2054,33 +2074,33 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
       <c r="B43" s="5" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
       <c r="B44" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2092,55 +2112,67 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
       <c r="B45" s="5" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5">
+        <v>6</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
       <c r="B46" s="5" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
+    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
       <c r="B47" s="5" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
       <c r="B48" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5">
@@ -2156,71 +2188,59 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
       <c r="B49" s="5" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="5">
-        <v>0</v>
-      </c>
+      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
       <c r="B50" s="5" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="5">
-        <v>0</v>
-      </c>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="5">
-        <v>0</v>
-      </c>
+      <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
+    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
       <c r="B51" s="5" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
+      <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="5">
-        <v>0</v>
-      </c>
+      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
+    <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
       <c r="B52" s="5" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2232,10 +2252,10 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
       <c r="B53" s="5" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5">
@@ -2251,14 +2271,14 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
       <c r="B54" s="5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -2270,10 +2290,10 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
       <c r="B55" s="5" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5">
@@ -2289,10 +2309,10 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16"/>
       <c r="B56" s="5" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5">
@@ -2308,14 +2328,14 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
+    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16"/>
       <c r="B57" s="5" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2327,14 +2347,14 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
+    <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
       <c r="B58" s="5" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2346,63 +2366,71 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
+    <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="16"/>
       <c r="B59" s="5" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16"/>
       <c r="B60" s="5" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
+    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16"/>
       <c r="B61" s="5" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="5">
+        <v>4</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
+    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
       <c r="B62" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -2414,71 +2442,65 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
+    <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
       <c r="B63" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="C63" s="5">
+        <v>57</v>
+      </c>
       <c r="D63" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
+    <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
       <c r="B64" s="5" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
+      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="5">
-        <v>0</v>
-      </c>
+      <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
+    <row r="65" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16"/>
       <c r="B65" s="5" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="5">
-        <v>3</v>
-      </c>
+      <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="5">
-        <v>0</v>
-      </c>
+      <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
+    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
       <c r="B66" s="5" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -2490,14 +2512,14 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16"/>
       <c r="B67" s="5" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2509,29 +2531,33 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
+    <row r="68" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
       <c r="B68" s="5" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
+    <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16"/>
       <c r="B69" s="5" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -2543,33 +2569,35 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
+    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
       <c r="B70" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="C70" s="5">
+        <v>713</v>
+      </c>
       <c r="D70" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
+    <row r="71" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16"/>
       <c r="B71" s="5" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -2581,84 +2609,88 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
+    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
       <c r="B72" s="5" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="5">
-        <v>1</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="5">
-        <v>0</v>
-      </c>
+      <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
+    <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
       <c r="B73" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="C73" s="5">
+        <v>5476</v>
+      </c>
       <c r="D73" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
       <c r="B74" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="C74" s="5">
+        <v>5476</v>
+      </c>
       <c r="D74" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
+    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16"/>
       <c r="B75" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="C75" s="5">
+        <v>34</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3</v>
+      </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="I75" s="5">
+        <v>2</v>
+      </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
+    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
       <c r="B76" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2670,10 +2702,10 @@
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
+    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="16"/>
       <c r="B77" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2685,10 +2717,10 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
+    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
       <c r="B78" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2700,25 +2732,31 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
+    <row r="79" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
       <c r="B79" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C79" s="5">
+        <v>31</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2</v>
+      </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="I79" s="5">
+        <v>6</v>
+      </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
+    <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
       <c r="B80" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2730,10 +2768,10 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16"/>
       <c r="B81" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -2745,25 +2783,31 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
+    <row r="82" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
       <c r="B82" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="C82" s="5">
+        <v>50</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2</v>
+      </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="I82" s="5">
+        <v>6</v>
+      </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
+    <row r="83" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
       <c r="B83" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -2775,70 +2819,94 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="14"/>
+    <row r="84" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
       <c r="B84" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="C84" s="5">
+        <v>37</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
+      </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="I84" s="5">
+        <v>3</v>
+      </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
+    <row r="85" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="16"/>
       <c r="B85" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C85" s="5">
+        <v>36</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2</v>
+      </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
+      <c r="I85" s="5">
+        <v>6</v>
+      </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="14"/>
+    <row r="86" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
       <c r="B86" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="C86" s="5">
+        <v>41</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3</v>
+      </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="I86" s="5">
+        <v>5</v>
+      </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
+    <row r="87" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="16"/>
       <c r="B87" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C87" s="5">
+        <v>75</v>
+      </c>
+      <c r="D87" s="5">
+        <v>4</v>
+      </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
+      <c r="I87" s="5">
+        <v>16</v>
+      </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
+    <row r="88" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
       <c r="B88" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -2850,70 +2918,94 @@
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="14"/>
+    <row r="89" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="16"/>
       <c r="B89" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C89" s="5">
+        <v>31</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
+      <c r="I89" s="5">
+        <v>6</v>
+      </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="14"/>
+    <row r="90" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16"/>
       <c r="B90" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C90" s="5">
+        <v>43</v>
+      </c>
+      <c r="D90" s="5">
+        <v>2</v>
+      </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
+      <c r="I90" s="5">
+        <v>6</v>
+      </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="14"/>
+    <row r="91" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16"/>
       <c r="B91" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="C91" s="5">
+        <v>43</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
+      <c r="I91" s="5">
+        <v>7</v>
+      </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="14"/>
+    <row r="92" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="16"/>
       <c r="B92" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C92" s="5">
+        <v>43</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
+      <c r="I92" s="5">
+        <v>4</v>
+      </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="14"/>
+    <row r="93" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="16"/>
       <c r="B93" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -2925,10 +3017,10 @@
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14"/>
+    <row r="94" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
       <c r="B94" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -2940,10 +3032,10 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14"/>
+    <row r="95" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="16"/>
       <c r="B95" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -2955,10 +3047,10 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="14"/>
+    <row r="96" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="16"/>
       <c r="B96" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -2970,10 +3062,10 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="14"/>
+    <row r="97" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="16"/>
       <c r="B97" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -2985,10 +3077,10 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="14"/>
+    <row r="98" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="16"/>
       <c r="B98" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3000,10 +3092,10 @@
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="14"/>
+    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="16"/>
       <c r="B99" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3015,10 +3107,10 @@
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="14"/>
+    <row r="100" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="16"/>
       <c r="B100" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3030,10 +3122,10 @@
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="14"/>
+    <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="16"/>
       <c r="B101" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3045,10 +3137,10 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="14"/>
+    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="16"/>
       <c r="B102" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3060,10 +3152,10 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="14"/>
+    <row r="103" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="16"/>
       <c r="B103" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -3075,10 +3167,10 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14"/>
+    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="16"/>
       <c r="B104" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3090,10 +3182,10 @@
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="14"/>
+    <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="16"/>
       <c r="B105" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3105,10 +3197,10 @@
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="14"/>
+    <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="16"/>
       <c r="B106" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -3120,10 +3212,10 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="14"/>
+    <row r="107" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="16"/>
       <c r="B107" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3135,10 +3227,10 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="14"/>
+    <row r="108" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="16"/>
       <c r="B108" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3150,10 +3242,10 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="14"/>
+    <row r="109" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="16"/>
       <c r="B109" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3165,10 +3257,10 @@
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="14"/>
+    <row r="110" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="16"/>
       <c r="B110" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3180,10 +3272,10 @@
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="14"/>
+    <row r="111" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="16"/>
       <c r="B111" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3195,40 +3287,42 @@
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="14"/>
+    <row r="112" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="16"/>
       <c r="B112" s="5" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="5">
-        <v>0</v>
-      </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="5">
-        <v>0</v>
-      </c>
+      <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="14"/>
-      <c r="B113" s="5"/>
+    <row r="113" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="16"/>
+      <c r="B113" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="5">
+        <v>0</v>
+      </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
+      <c r="I113" s="5">
+        <v>0</v>
+      </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="14"/>
+    <row r="114" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="16"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -3240,8 +3334,8 @@
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="15"/>
+    <row r="115" spans="1:11" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="16"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -3253,56 +3347,40 @@
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="5">
-        <v>87</v>
-      </c>
-      <c r="D116" s="5">
-        <v>3</v>
-      </c>
+    <row r="116" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="5">
-        <v>2</v>
-      </c>
+      <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="5">
-        <v>5</v>
-      </c>
-      <c r="J116" s="5">
-        <v>0</v>
-      </c>
-      <c r="K116" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="14"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="B117" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C117" s="5">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D117" s="5">
-        <v>11</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E117" s="5"/>
       <c r="F117" s="5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J117" s="5">
         <v>0</v>
@@ -3311,171 +3389,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="14"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="16"/>
       <c r="B118" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118" s="5">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D118" s="5">
-        <v>2</v>
-      </c>
-      <c r="E118" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F118" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5">
-        <v>0</v>
-      </c>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0</v>
+      </c>
+      <c r="K118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="16"/>
       <c r="B119" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C119" s="5">
-        <v>566</v>
+        <v>40</v>
       </c>
       <c r="D119" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
-      <c r="I119" s="7">
-        <v>11</v>
+      <c r="I119" s="5">
+        <v>0</v>
       </c>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="14"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="16"/>
       <c r="B120" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C120" s="5">
-        <v>274</v>
+        <v>566</v>
       </c>
       <c r="D120" s="5">
-        <v>26</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E120" s="5"/>
       <c r="F120" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="14"/>
+    <row r="121" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="16"/>
       <c r="B121" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C121" s="5">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="D121" s="5">
-        <v>5</v>
-      </c>
-      <c r="E121" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="F121" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="5">
-        <v>2</v>
+      <c r="I121" s="7">
+        <v>6</v>
       </c>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="14"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="16"/>
       <c r="B122" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C122" s="5">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="D122" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
-      <c r="I122" s="7">
-        <v>8</v>
+      <c r="I122" s="5">
+        <v>2</v>
       </c>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="14"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="16"/>
       <c r="B123" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123" s="5">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="D123" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="14"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="16"/>
       <c r="B124" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C124" s="5">
-        <v>2900</v>
+        <v>298</v>
       </c>
       <c r="D124" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
+      <c r="F124" s="5">
+        <v>8</v>
+      </c>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="14"/>
+    <row r="125" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="16"/>
       <c r="B125" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C125" s="5">
         <v>2900</v>
@@ -3487,33 +3573,37 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
-      <c r="I125" s="5">
-        <v>0</v>
+      <c r="I125" s="7">
+        <v>4</v>
       </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14"/>
+    <row r="126" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="16"/>
       <c r="B126" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C126" s="5">
+        <v>2900</v>
+      </c>
+      <c r="D126" s="5">
+        <v>2</v>
+      </c>
       <c r="E126" s="5"/>
-      <c r="F126" s="5">
-        <v>0</v>
-      </c>
+      <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
+      <c r="I126" s="5">
+        <v>0</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="14"/>
+    <row r="127" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="16"/>
       <c r="B127" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C127" s="5">
         <v>2900</v>
@@ -3531,13 +3621,19 @@
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="14"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="B128" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="C128" s="5">
+        <v>482</v>
+      </c>
+      <c r="D128" s="5">
+        <v>6</v>
+      </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -3546,13 +3642,17 @@
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="14"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="16"/>
       <c r="B129" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C129" s="5">
+        <v>145</v>
+      </c>
+      <c r="D129" s="5">
+        <v>41</v>
+      </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -3561,13 +3661,17 @@
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="14"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="16"/>
       <c r="B130" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="C130" s="5">
+        <v>1389</v>
+      </c>
+      <c r="D130" s="5">
+        <v>19</v>
+      </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -3576,13 +3680,17 @@
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="14"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="16"/>
       <c r="B131" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="C131" s="5">
+        <v>198</v>
+      </c>
+      <c r="D131" s="5">
+        <v>7</v>
+      </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -3591,13 +3699,17 @@
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="14"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="16"/>
       <c r="B132" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C132" s="5">
+        <v>769</v>
+      </c>
+      <c r="D132" s="5">
+        <v>13</v>
+      </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -3606,10 +3718,10 @@
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="14"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="16"/>
       <c r="B133" s="5" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -3621,13 +3733,17 @@
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="15"/>
+    <row r="134" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="16"/>
       <c r="B134" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C134" s="5">
+        <v>1395</v>
+      </c>
+      <c r="D134" s="5">
+        <v>1</v>
+      </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -3636,123 +3752,89 @@
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="13" t="s">
-        <v>4</v>
-      </c>
+    <row r="135" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="16"/>
       <c r="B135" s="5" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C135" s="5">
-        <v>482</v>
+        <v>3667</v>
       </c>
       <c r="D135" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E135" s="5"/>
-      <c r="F135" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
-      <c r="I135" s="5">
-        <v>1</v>
-      </c>
+      <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="14"/>
+    <row r="136" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="16"/>
       <c r="B136" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C136" s="5">
-        <v>145</v>
-      </c>
-      <c r="D136" s="5">
-        <v>41</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
-      <c r="I136" s="5">
-        <v>2</v>
-      </c>
+      <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="14"/>
+    <row r="137" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="16"/>
       <c r="B137" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C137" s="5">
-        <v>1389</v>
-      </c>
-      <c r="D137" s="5">
-        <v>19</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
-      <c r="I137" s="5">
-        <v>21</v>
-      </c>
+      <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="14"/>
+    <row r="138" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="16"/>
       <c r="B138" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138" s="5">
-        <v>198</v>
-      </c>
-      <c r="D138" s="5">
-        <v>7</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
-      <c r="I138" s="5">
-        <v>0</v>
-      </c>
+      <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="14"/>
+    <row r="139" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="16"/>
       <c r="B139" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C139" s="5">
-        <v>769</v>
-      </c>
-      <c r="D139" s="5">
-        <v>13</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
-      <c r="I139" s="5">
-        <v>28</v>
-      </c>
+      <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="14"/>
+    <row r="140" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="16"/>
       <c r="B140" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3764,56 +3846,40 @@
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="14"/>
+    <row r="141" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="16"/>
       <c r="B141" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C141" s="5">
-        <v>1395</v>
-      </c>
-      <c r="D141" s="5">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
-      <c r="I141" s="5">
-        <v>0</v>
-      </c>
+      <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="14"/>
+    <row r="142" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="16"/>
       <c r="B142" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C142" s="5">
-        <v>3667</v>
-      </c>
-      <c r="D142" s="5">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
-      <c r="I142" s="5">
-        <v>0</v>
-      </c>
+      <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="14"/>
-      <c r="B143" s="5" t="s">
-        <v>98</v>
+    <row r="143" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="16"/>
+      <c r="B143" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -3825,11 +3891,9 @@
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="14"/>
-      <c r="B144" s="5" t="s">
-        <v>99</v>
-      </c>
+    <row r="144" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="16"/>
+      <c r="B144" s="8"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -3840,11 +3904,8 @@
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="14"/>
-      <c r="B145" s="5" t="s">
-        <v>100</v>
-      </c>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="17"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -3855,25 +3916,31 @@
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="14"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="B146" s="5" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
+      <c r="F146" s="5">
+        <v>0</v>
+      </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
+      <c r="I146" s="5">
+        <v>0</v>
+      </c>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="5" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -3881,44 +3948,54 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
+      <c r="I147" s="5">
+        <v>0</v>
+      </c>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="5" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
+      <c r="F148" s="5">
+        <v>0</v>
+      </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
+      <c r="I148" s="5">
+        <v>5</v>
+      </c>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="5" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
+      <c r="F149" s="5">
+        <v>0</v>
+      </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
+      <c r="I149" s="5">
+        <v>0</v>
+      </c>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
-      <c r="B150" s="8" t="s">
-        <v>104</v>
+      <c r="B150" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -3926,132 +4003,139 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
+      <c r="I150" s="5">
+        <v>0</v>
+      </c>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="14"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="15"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5">
-        <v>0</v>
-      </c>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5">
-        <v>5</v>
-      </c>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="12"/>
-      <c r="B154" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5">
-        <v>0</v>
-      </c>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="12"/>
-      <c r="B155" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5">
-        <v>0</v>
-      </c>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="12"/>
-      <c r="B156" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5">
-        <v>0</v>
-      </c>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="12"/>
-      <c r="B157" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5">
-        <v>0</v>
-      </c>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-    </row>
-    <row r="158" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="12"/>
+      <c r="B151" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10">
+        <v>0</v>
+      </c>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+    </row>
+    <row r="152" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="14"/>
+      <c r="B152" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10">
+        <v>3</v>
+      </c>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+    </row>
+    <row r="153" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="14"/>
+      <c r="B153" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10">
+        <v>0</v>
+      </c>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+    </row>
+    <row r="154" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="14"/>
+      <c r="B154" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10">
+        <v>0</v>
+      </c>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10">
+        <v>0</v>
+      </c>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+    </row>
+    <row r="155" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="14"/>
+      <c r="B155" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10">
+        <v>2</v>
+      </c>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10">
+        <v>2</v>
+      </c>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+    </row>
+    <row r="156" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="14"/>
+      <c r="B156" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10">
+        <v>8</v>
+      </c>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+    </row>
+    <row r="157" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="14"/>
+      <c r="B157" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10">
+        <v>6</v>
+      </c>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+    </row>
+    <row r="158" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="14"/>
       <c r="B158" s="10" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
@@ -4060,279 +4144,162 @@
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
       <c r="I158" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J158" s="10"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="12"/>
+    <row r="159" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="14"/>
       <c r="B159" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
+      <c r="F159" s="10">
+        <v>0</v>
+      </c>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
       <c r="I159" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
     </row>
-    <row r="160" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="12"/>
-      <c r="B160" s="10" t="s">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5">
+        <v>4</v>
+      </c>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="14"/>
+      <c r="B161" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5">
+        <v>1</v>
+      </c>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="14"/>
+      <c r="B162" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5">
+        <v>1</v>
+      </c>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="14"/>
+      <c r="B163" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5">
+        <v>6</v>
+      </c>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="14"/>
+      <c r="B164" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5">
+        <v>2</v>
+      </c>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="14"/>
+      <c r="B165" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5">
+        <v>4</v>
+      </c>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="14"/>
+      <c r="B166" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10">
-        <v>0</v>
-      </c>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
-    </row>
-    <row r="161" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="12"/>
-      <c r="B161" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10">
-        <v>0</v>
-      </c>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-    </row>
-    <row r="162" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="12"/>
-      <c r="B162" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10">
-        <v>2</v>
-      </c>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="10">
-        <v>2</v>
-      </c>
-      <c r="J162" s="10"/>
-      <c r="K162" s="10"/>
-    </row>
-    <row r="163" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="12"/>
-      <c r="B163" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="10"/>
-    </row>
-    <row r="164" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="12"/>
-      <c r="B164" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10">
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5">
         <v>3</v>
       </c>
-      <c r="J164" s="10"/>
-      <c r="K164" s="10"/>
-    </row>
-    <row r="165" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="12"/>
-      <c r="B165" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="10">
-        <v>6</v>
-      </c>
-      <c r="J165" s="10"/>
-      <c r="K165" s="10"/>
-    </row>
-    <row r="166" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="12"/>
-      <c r="B166" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10">
-        <v>0</v>
-      </c>
-      <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
-    </row>
-    <row r="167" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="12"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="10"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="12"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
-      <c r="K169" s="5"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="12"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="12"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="12"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
-      <c r="K172" s="5"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="12"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5"/>
-      <c r="K173" s="5"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="12"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
-      <c r="K174" s="5"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="12"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5"/>
-      <c r="K175" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A153:A168"/>
-    <mergeCell ref="A169:A175"/>
+    <mergeCell ref="A146:A159"/>
+    <mergeCell ref="A160:A166"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A116:A134"/>
-    <mergeCell ref="A4:A115"/>
-    <mergeCell ref="A135:A152"/>
+    <mergeCell ref="A117:A127"/>
+    <mergeCell ref="A4:A116"/>
+    <mergeCell ref="A128:A145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4348,25 +4315,25 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4374,7 +4341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4382,18 +4349,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4404,12 +4371,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>

--- a/Rv-Pre_tomcat9/benchmarks进展.xlsx
+++ b/Rv-Pre_tomcat9/benchmarks进展.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="6480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="详细数据表" sheetId="1" r:id="rId1"/>
@@ -1329,19 +1329,19 @@
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1374,7 +1374,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="15" t="s">
         <v>97</v>
@@ -1453,7 +1453,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="15" t="s">
         <v>98</v>
@@ -1476,7 +1476,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="15" t="s">
         <v>99</v>
@@ -1499,7 +1499,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="15" t="s">
         <v>100</v>
@@ -1522,7 +1522,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
       <c r="B9" s="15" t="s">
         <v>101</v>
@@ -1545,7 +1545,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30"/>
       <c r="B10" s="15" t="s">
         <v>102</v>
@@ -1568,7 +1568,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
       <c r="B11" s="15" t="s">
         <v>103</v>
@@ -1591,7 +1591,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="15" t="s">
         <v>104</v>
@@ -1614,7 +1614,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30"/>
       <c r="B13" s="15" t="s">
         <v>105</v>
@@ -1637,7 +1637,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30"/>
       <c r="B14" s="15" t="s">
         <v>106</v>
@@ -1660,7 +1660,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30"/>
       <c r="B15" s="15" t="s">
         <v>157</v>
@@ -1683,7 +1683,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30"/>
       <c r="B16" s="15" t="s">
         <v>158</v>
@@ -1706,7 +1706,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
       <c r="B17" s="15" t="s">
         <v>108</v>
@@ -1727,7 +1727,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
       <c r="B18" s="15" t="s">
         <v>109</v>
@@ -1750,7 +1750,7 @@
       <c r="J18" s="13"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="B19" s="15" t="s">
         <v>110</v>
@@ -1773,7 +1773,7 @@
       <c r="J19" s="13"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
       <c r="B20" s="15" t="s">
         <v>111</v>
@@ -1796,7 +1796,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="15" t="s">
         <v>112</v>
@@ -1821,7 +1821,7 @@
       <c r="J21" s="13"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
       <c r="B22" s="15" t="s">
         <v>113</v>
@@ -1844,7 +1844,7 @@
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
       <c r="B23" s="15" t="s">
         <v>114</v>
@@ -1867,7 +1867,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
       <c r="B24" s="15" t="s">
         <v>115</v>
@@ -1890,7 +1890,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
       <c r="B25" s="15" t="s">
         <v>116</v>
@@ -1913,7 +1913,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
       <c r="B26" s="15" t="s">
         <v>117</v>
@@ -1936,7 +1936,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
       <c r="B27" s="15" t="s">
         <v>118</v>
@@ -1959,7 +1959,7 @@
       <c r="J27" s="13"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
       <c r="B28" s="15" t="s">
         <v>125</v>
@@ -1980,7 +1980,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="15" t="s">
         <v>125</v>
@@ -2001,7 +2001,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="2" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="5" t="s">
         <v>32</v>
@@ -2016,7 +2016,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="B31" s="5" t="s">
         <v>33</v>
@@ -2031,7 +2031,7 @@
       <c r="J31" s="13"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
       <c r="B32" s="5" t="s">
         <v>126</v>
@@ -2050,7 +2050,7 @@
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="5" t="s">
         <v>34</v>
@@ -2065,7 +2065,7 @@
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
       <c r="B34" s="5" t="s">
         <v>119</v>
@@ -2084,7 +2084,7 @@
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="5" t="s">
         <v>120</v>
@@ -2099,7 +2099,7 @@
       <c r="J35" s="13"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="5" t="s">
         <v>121</v>
@@ -2114,7 +2114,7 @@
       <c r="J36" s="13"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
       <c r="B37" s="5" t="s">
         <v>35</v>
@@ -2129,7 +2129,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="5" t="s">
         <v>36</v>
@@ -2144,7 +2144,7 @@
       <c r="J38" s="13"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="5" t="s">
         <v>37</v>
@@ -2159,7 +2159,7 @@
       <c r="J39" s="13"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
       <c r="B40" s="5" t="s">
         <v>41</v>
@@ -2174,7 +2174,7 @@
       <c r="J40" s="13"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="5" t="s">
         <v>122</v>
@@ -2193,7 +2193,7 @@
       <c r="J41" s="13"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="5" t="s">
         <v>127</v>
@@ -2212,7 +2212,7 @@
       <c r="J42" s="13"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
       <c r="B43" s="5" t="s">
         <v>123</v>
@@ -2231,7 +2231,7 @@
       <c r="J43" s="13"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="5" t="s">
         <v>128</v>
@@ -2250,7 +2250,7 @@
       <c r="J44" s="13"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
       <c r="B45" s="5" t="s">
         <v>124</v>
@@ -2269,7 +2269,7 @@
       <c r="J45" s="13"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
       <c r="B46" s="5" t="s">
         <v>129</v>
@@ -2288,7 +2288,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
       <c r="B47" s="5" t="s">
         <v>130</v>
@@ -2307,7 +2307,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
       <c r="B48" s="5" t="s">
         <v>131</v>
@@ -2326,7 +2326,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="14"/>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
       <c r="B49" s="5" t="s">
         <v>38</v>
@@ -2343,7 +2343,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="14"/>
     </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="5" t="s">
         <v>39</v>
@@ -2360,7 +2360,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="5" t="s">
         <v>40</v>
@@ -2377,7 +2377,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="14"/>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
       <c r="B52" s="5" t="s">
         <v>132</v>
@@ -2396,7 +2396,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="14"/>
     </row>
-    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
       <c r="B53" s="5" t="s">
         <v>133</v>
@@ -2415,7 +2415,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="14"/>
     </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
       <c r="B54" s="5" t="s">
         <v>134</v>
@@ -2436,7 +2436,7 @@
       <c r="J54" s="13"/>
       <c r="K54" s="14"/>
     </row>
-    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
       <c r="B55" s="5" t="s">
         <v>42</v>
@@ -2451,7 +2451,7 @@
       <c r="J55" s="13"/>
       <c r="K55" s="14"/>
     </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="5" t="s">
         <v>43</v>
@@ -2466,7 +2466,7 @@
       <c r="J56" s="13"/>
       <c r="K56" s="14"/>
     </row>
-    <row r="57" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="15" t="s">
         <v>135</v>
@@ -2485,7 +2485,7 @@
       <c r="J57" s="17"/>
       <c r="K57" s="18"/>
     </row>
-    <row r="58" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
       <c r="B58" s="15" t="s">
         <v>136</v>
@@ -2508,7 +2508,7 @@
       <c r="J58" s="17"/>
       <c r="K58" s="18"/>
     </row>
-    <row r="59" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
       <c r="B59" s="15" t="s">
         <v>137</v>
@@ -2527,7 +2527,7 @@
       <c r="J59" s="17"/>
       <c r="K59" s="18"/>
     </row>
-    <row r="60" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="B60" s="15" t="s">
         <v>44</v>
@@ -2542,7 +2542,7 @@
       <c r="J60" s="17"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
       <c r="B61" s="15" t="s">
         <v>138</v>
@@ -2563,7 +2563,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="18"/>
     </row>
-    <row r="62" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
       <c r="B62" s="15" t="s">
         <v>139</v>
@@ -2584,7 +2584,7 @@
       <c r="J62" s="17"/>
       <c r="K62" s="18"/>
     </row>
-    <row r="63" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
       <c r="B63" s="15" t="s">
         <v>140</v>
@@ -2605,7 +2605,7 @@
       <c r="J63" s="17"/>
       <c r="K63" s="18"/>
     </row>
-    <row r="64" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="15" t="s">
         <v>45</v>
@@ -2620,7 +2620,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="18"/>
     </row>
-    <row r="65" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="15" t="s">
         <v>46</v>
@@ -2635,7 +2635,7 @@
       <c r="J65" s="17"/>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="15" t="s">
         <v>47</v>
@@ -2650,7 +2650,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="18"/>
     </row>
-    <row r="67" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="15" t="s">
         <v>48</v>
@@ -2673,7 +2673,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="18"/>
     </row>
-    <row r="68" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
       <c r="B68" s="15" t="s">
         <v>49</v>
@@ -2690,7 +2690,7 @@
       <c r="J68" s="17"/>
       <c r="K68" s="18"/>
     </row>
-    <row r="69" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="15" t="s">
         <v>50</v>
@@ -2707,7 +2707,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="18"/>
     </row>
-    <row r="70" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
       <c r="B70" s="15" t="s">
         <v>51</v>
@@ -2730,7 +2730,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="18"/>
     </row>
-    <row r="71" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="30"/>
       <c r="B71" s="15" t="s">
         <v>52</v>
@@ -2747,7 +2747,7 @@
       <c r="J71" s="17"/>
       <c r="K71" s="18"/>
     </row>
-    <row r="72" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="30"/>
       <c r="B72" s="15" t="s">
         <v>53</v>
@@ -2770,7 +2770,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="18"/>
     </row>
-    <row r="73" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="30"/>
       <c r="B73" s="15" t="s">
         <v>54</v>
@@ -2793,7 +2793,7 @@
       <c r="J73" s="17"/>
       <c r="K73" s="18"/>
     </row>
-    <row r="74" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="30"/>
       <c r="B74" s="15" t="s">
         <v>55</v>
@@ -2816,7 +2816,7 @@
       <c r="J74" s="17"/>
       <c r="K74" s="18"/>
     </row>
-    <row r="75" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="30"/>
       <c r="B75" s="15" t="s">
         <v>56</v>
@@ -2839,7 +2839,7 @@
       <c r="J75" s="17"/>
       <c r="K75" s="18"/>
     </row>
-    <row r="76" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="30"/>
       <c r="B76" s="15" t="s">
         <v>57</v>
@@ -2858,7 +2858,7 @@
       <c r="J76" s="17"/>
       <c r="K76" s="18"/>
     </row>
-    <row r="77" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="30"/>
       <c r="B77" s="15" t="s">
         <v>58</v>
@@ -2881,7 +2881,7 @@
       <c r="J77" s="17"/>
       <c r="K77" s="18"/>
     </row>
-    <row r="78" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="30"/>
       <c r="B78" s="15" t="s">
         <v>59</v>
@@ -2904,7 +2904,7 @@
       <c r="J78" s="17"/>
       <c r="K78" s="18"/>
     </row>
-    <row r="79" spans="1:11" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="30"/>
       <c r="B79" s="15" t="s">
         <v>60</v>
@@ -2927,7 +2927,7 @@
       <c r="J79" s="17"/>
       <c r="K79" s="18"/>
     </row>
-    <row r="80" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="30"/>
       <c r="B80" s="15" t="s">
         <v>61</v>
@@ -2950,7 +2950,7 @@
       <c r="J80" s="17"/>
       <c r="K80" s="18"/>
     </row>
-    <row r="81" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="30"/>
       <c r="B81" s="15" t="s">
         <v>62</v>
@@ -2969,7 +2969,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="18"/>
     </row>
-    <row r="82" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="30"/>
       <c r="B82" s="15" t="s">
         <v>63</v>
@@ -2988,7 +2988,7 @@
       <c r="J82" s="17"/>
       <c r="K82" s="18"/>
     </row>
-    <row r="83" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="30"/>
       <c r="B83" s="15" t="s">
         <v>64</v>
@@ -3007,7 +3007,7 @@
       <c r="J83" s="17"/>
       <c r="K83" s="18"/>
     </row>
-    <row r="84" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="30"/>
       <c r="B84" s="15" t="s">
         <v>65</v>
@@ -3026,7 +3026,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="18"/>
     </row>
-    <row r="85" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="30"/>
       <c r="B85" s="15" t="s">
         <v>66</v>
@@ -3045,7 +3045,7 @@
       <c r="J85" s="17"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="30"/>
       <c r="B86" s="15" t="s">
         <v>67</v>
@@ -3064,7 +3064,7 @@
       <c r="J86" s="17"/>
       <c r="K86" s="18"/>
     </row>
-    <row r="87" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="30"/>
       <c r="B87" s="15" t="s">
         <v>68</v>
@@ -3081,7 +3081,7 @@
       <c r="J87" s="17"/>
       <c r="K87" s="18"/>
     </row>
-    <row r="88" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="30"/>
       <c r="B88" s="15" t="s">
         <v>69</v>
@@ -3098,7 +3098,7 @@
       <c r="J88" s="17"/>
       <c r="K88" s="18"/>
     </row>
-    <row r="89" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="30"/>
       <c r="B89" s="15" t="s">
         <v>70</v>
@@ -3115,7 +3115,7 @@
       <c r="J89" s="17"/>
       <c r="K89" s="18"/>
     </row>
-    <row r="90" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="30"/>
       <c r="B90" s="15" t="s">
         <v>71</v>
@@ -3132,7 +3132,7 @@
       <c r="J90" s="17"/>
       <c r="K90" s="18"/>
     </row>
-    <row r="91" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="30"/>
       <c r="B91" s="15" t="s">
         <v>72</v>
@@ -3149,7 +3149,7 @@
       <c r="J91" s="17"/>
       <c r="K91" s="18"/>
     </row>
-    <row r="92" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="30"/>
       <c r="B92" s="15" t="s">
         <v>73</v>
@@ -3166,7 +3166,7 @@
       <c r="J92" s="17"/>
       <c r="K92" s="18"/>
     </row>
-    <row r="93" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="30"/>
       <c r="B93" s="15" t="s">
         <v>74</v>
@@ -3183,7 +3183,7 @@
       <c r="J93" s="17"/>
       <c r="K93" s="18"/>
     </row>
-    <row r="94" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="30"/>
       <c r="B94" s="15" t="s">
         <v>75</v>
@@ -3200,7 +3200,7 @@
       <c r="J94" s="17"/>
       <c r="K94" s="18"/>
     </row>
-    <row r="95" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="30"/>
       <c r="B95" s="15" t="s">
         <v>76</v>
@@ -3217,7 +3217,7 @@
       <c r="J95" s="17"/>
       <c r="K95" s="18"/>
     </row>
-    <row r="96" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="30"/>
       <c r="B96" s="15" t="s">
         <v>77</v>
@@ -3234,7 +3234,7 @@
       <c r="J96" s="17"/>
       <c r="K96" s="18"/>
     </row>
-    <row r="97" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="30"/>
       <c r="B97" s="15" t="s">
         <v>78</v>
@@ -3251,7 +3251,7 @@
       <c r="J97" s="17"/>
       <c r="K97" s="18"/>
     </row>
-    <row r="98" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="30"/>
       <c r="B98" s="15" t="s">
         <v>79</v>
@@ -3268,7 +3268,7 @@
       <c r="J98" s="17"/>
       <c r="K98" s="18"/>
     </row>
-    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="30"/>
       <c r="B99" s="5" t="s">
         <v>80</v>
@@ -3283,7 +3283,7 @@
       <c r="J99" s="13"/>
       <c r="K99" s="14"/>
     </row>
-    <row r="100" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="30"/>
       <c r="B100" s="5" t="s">
         <v>81</v>
@@ -3298,7 +3298,7 @@
       <c r="J100" s="13"/>
       <c r="K100" s="14"/>
     </row>
-    <row r="101" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="30"/>
       <c r="B101" s="5" t="s">
         <v>141</v>
@@ -3317,7 +3317,7 @@
       <c r="J101" s="13"/>
       <c r="K101" s="14"/>
     </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="30"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3330,7 +3330,7 @@
       <c r="J102" s="13"/>
       <c r="K102" s="14"/>
     </row>
-    <row r="103" spans="1:11" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="30"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3343,7 +3343,7 @@
       <c r="J103" s="13"/>
       <c r="K103" s="14"/>
     </row>
-    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="31"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3356,7 +3356,7 @@
       <c r="J104" s="13"/>
       <c r="K104" s="14"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="29" t="s">
         <v>3</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="J105" s="13"/>
       <c r="K105" s="14"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="30"/>
       <c r="B106" s="5" t="s">
         <v>20</v>
@@ -3406,7 +3406,7 @@
       <c r="J106" s="13"/>
       <c r="K106" s="14"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="30"/>
       <c r="B107" s="5" t="s">
         <v>21</v>
@@ -3429,7 +3429,7 @@
       <c r="J107" s="13"/>
       <c r="K107" s="14"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="30"/>
       <c r="B108" s="5" t="s">
         <v>22</v>
@@ -3452,7 +3452,7 @@
       <c r="J108" s="13"/>
       <c r="K108" s="14"/>
     </row>
-    <row r="109" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="30"/>
       <c r="B109" s="5" t="s">
         <v>29</v>
@@ -3477,7 +3477,7 @@
       <c r="J109" s="13"/>
       <c r="K109" s="14"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="30"/>
       <c r="B110" s="5" t="s">
         <v>23</v>
@@ -3500,7 +3500,7 @@
       <c r="J110" s="13"/>
       <c r="K110" s="14"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="30"/>
       <c r="B111" s="5" t="s">
         <v>24</v>
@@ -3523,7 +3523,7 @@
       <c r="J111" s="13"/>
       <c r="K111" s="14"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="30"/>
       <c r="B112" s="5" t="s">
         <v>25</v>
@@ -3546,7 +3546,7 @@
       <c r="J112" s="13"/>
       <c r="K112" s="14"/>
     </row>
-    <row r="113" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="30"/>
       <c r="B113" s="5" t="s">
         <v>26</v>
@@ -3567,7 +3567,7 @@
       <c r="J113" s="13"/>
       <c r="K113" s="14"/>
     </row>
-    <row r="114" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="30"/>
       <c r="B114" s="5" t="s">
         <v>27</v>
@@ -3588,7 +3588,7 @@
       <c r="J114" s="13"/>
       <c r="K114" s="14"/>
     </row>
-    <row r="115" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="30"/>
       <c r="B115" s="5" t="s">
         <v>28</v>
@@ -3609,7 +3609,7 @@
       <c r="J115" s="13"/>
       <c r="K115" s="14"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>4</v>
       </c>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="K116" s="14"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="30"/>
       <c r="B117" s="5" t="s">
         <v>83</v>
@@ -3655,7 +3655,7 @@
       <c r="J117" s="13"/>
       <c r="K117" s="14"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="30"/>
       <c r="B118" s="5" t="s">
         <v>84</v>
@@ -3674,7 +3674,7 @@
       <c r="J118" s="13"/>
       <c r="K118" s="14"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="30"/>
       <c r="B119" s="5" t="s">
         <v>85</v>
@@ -3693,7 +3693,7 @@
       <c r="J119" s="13"/>
       <c r="K119" s="14"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="30"/>
       <c r="B120" s="5" t="s">
         <v>86</v>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="K120" s="14"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="30"/>
       <c r="B121" s="5" t="s">
         <v>87</v>
@@ -3731,7 +3731,7 @@
       <c r="J121" s="13"/>
       <c r="K121" s="14"/>
     </row>
-    <row r="122" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="30"/>
       <c r="B122" s="5" t="s">
         <v>26</v>
@@ -3750,7 +3750,7 @@
       <c r="J122" s="13"/>
       <c r="K122" s="14"/>
     </row>
-    <row r="123" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="30"/>
       <c r="B123" s="5" t="s">
         <v>27</v>
@@ -3769,7 +3769,7 @@
       <c r="J123" s="13"/>
       <c r="K123" s="14"/>
     </row>
-    <row r="124" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="30"/>
       <c r="B124" s="5" t="s">
         <v>88</v>
@@ -3788,7 +3788,7 @@
       <c r="J124" s="13"/>
       <c r="K124" s="14"/>
     </row>
-    <row r="125" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="30"/>
       <c r="B125" s="5" t="s">
         <v>89</v>
@@ -3803,7 +3803,7 @@
       <c r="J125" s="13"/>
       <c r="K125" s="14"/>
     </row>
-    <row r="126" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="30"/>
       <c r="B126" s="5" t="s">
         <v>90</v>
@@ -3818,7 +3818,7 @@
       <c r="J126" s="13"/>
       <c r="K126" s="14"/>
     </row>
-    <row r="127" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="30"/>
       <c r="B127" s="5" t="s">
         <v>91</v>
@@ -3833,7 +3833,7 @@
       <c r="J127" s="13"/>
       <c r="K127" s="14"/>
     </row>
-    <row r="128" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="30"/>
       <c r="B128" s="5" t="s">
         <v>92</v>
@@ -3848,7 +3848,7 @@
       <c r="J128" s="13"/>
       <c r="K128" s="14"/>
     </row>
-    <row r="129" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="30"/>
       <c r="B129" s="5" t="s">
         <v>31</v>
@@ -3863,7 +3863,7 @@
       <c r="J129" s="13"/>
       <c r="K129" s="14"/>
     </row>
-    <row r="130" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="30"/>
       <c r="B130" s="5" t="s">
         <v>93</v>
@@ -3878,7 +3878,7 @@
       <c r="J130" s="13"/>
       <c r="K130" s="14"/>
     </row>
-    <row r="131" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="30"/>
       <c r="B131" s="8" t="s">
         <v>94</v>
@@ -3893,7 +3893,7 @@
       <c r="J131" s="13"/>
       <c r="K131" s="14"/>
     </row>
-    <row r="132" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="30"/>
       <c r="B132" s="8"/>
       <c r="C132" s="5"/>
@@ -3906,7 +3906,7 @@
       <c r="J132" s="13"/>
       <c r="K132" s="14"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="31"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -3918,7 +3918,7 @@
       <c r="J133" s="13"/>
       <c r="K133" s="14"/>
     </row>
-    <row r="134" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="27" t="s">
         <v>5</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="J134" s="17"/>
       <c r="K134" s="18"/>
     </row>
-    <row r="135" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="15" t="s">
         <v>144</v>
@@ -3956,7 +3956,7 @@
       <c r="J135" s="17"/>
       <c r="K135" s="18"/>
     </row>
-    <row r="136" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="15" t="s">
         <v>145</v>
@@ -3975,7 +3975,7 @@
       <c r="J136" s="17"/>
       <c r="K136" s="18"/>
     </row>
-    <row r="137" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="15" t="s">
         <v>146</v>
@@ -3994,7 +3994,7 @@
       <c r="J137" s="17"/>
       <c r="K137" s="18"/>
     </row>
-    <row r="138" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="15" t="s">
         <v>147</v>
@@ -4011,7 +4011,7 @@
       <c r="J138" s="17"/>
       <c r="K138" s="18"/>
     </row>
-    <row r="139" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="15" t="s">
         <v>148</v>
@@ -4028,7 +4028,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="18"/>
     </row>
-    <row r="140" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="15" t="s">
         <v>149</v>
@@ -4045,7 +4045,7 @@
       <c r="J140" s="17"/>
       <c r="K140" s="18"/>
     </row>
-    <row r="141" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="15" t="s">
         <v>150</v>
@@ -4062,7 +4062,7 @@
       <c r="J141" s="17"/>
       <c r="K141" s="18"/>
     </row>
-    <row r="142" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="15" t="s">
         <v>151</v>
@@ -4081,7 +4081,7 @@
       <c r="J142" s="17"/>
       <c r="K142" s="18"/>
     </row>
-    <row r="143" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="15" t="s">
         <v>152</v>
@@ -4100,7 +4100,7 @@
       <c r="J143" s="17"/>
       <c r="K143" s="18"/>
     </row>
-    <row r="144" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="15" t="s">
         <v>153</v>
@@ -4117,7 +4117,7 @@
       <c r="J144" s="17"/>
       <c r="K144" s="18"/>
     </row>
-    <row r="145" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="15" t="s">
         <v>154</v>
@@ -4134,7 +4134,7 @@
       <c r="J145" s="17"/>
       <c r="K145" s="18"/>
     </row>
-    <row r="146" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="15" t="s">
         <v>155</v>
@@ -4151,7 +4151,7 @@
       <c r="J146" s="17"/>
       <c r="K146" s="18"/>
     </row>
-    <row r="147" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="15" t="s">
         <v>156</v>
@@ -4170,7 +4170,7 @@
       <c r="J147" s="17"/>
       <c r="K147" s="18"/>
     </row>
-    <row r="148" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="27" t="s">
         <v>6</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="J148" s="17"/>
       <c r="K148" s="18"/>
     </row>
-    <row r="149" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="15" t="s">
         <v>160</v>
@@ -4206,7 +4206,7 @@
       <c r="J149" s="17"/>
       <c r="K149" s="18"/>
     </row>
-    <row r="150" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="15" t="s">
         <v>161</v>
@@ -4223,7 +4223,7 @@
       <c r="J150" s="17"/>
       <c r="K150" s="18"/>
     </row>
-    <row r="151" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="15" t="s">
         <v>163</v>
@@ -4240,7 +4240,7 @@
       <c r="J151" s="17"/>
       <c r="K151" s="18"/>
     </row>
-    <row r="152" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="15" t="s">
         <v>164</v>
@@ -4257,7 +4257,7 @@
       <c r="J152" s="17"/>
       <c r="K152" s="18"/>
     </row>
-    <row r="153" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="15" t="s">
         <v>165</v>
@@ -4274,7 +4274,7 @@
       <c r="J153" s="17"/>
       <c r="K153" s="18"/>
     </row>
-    <row r="154" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="15" t="s">
         <v>166</v>
@@ -4317,16 +4317,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.58203125" style="1"/>
+    <col min="5" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="D1" s="32"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4373,12 +4373,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4396,22 +4396,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.58203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="47.875" style="23" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="23" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.08203125" style="23" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="23" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="12.25" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.58203125" style="23"/>
+    <col min="8" max="16384" width="8.625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="28" t="s">
         <v>18</v>
       </c>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -4436,7 +4436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="21" t="s">
         <v>97</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
       <c r="B6" s="21" t="s">
         <v>98</v>
@@ -4518,7 +4518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="21" t="s">
         <v>99</v>
@@ -4537,7 +4537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="21" t="s">
         <v>100</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
       <c r="B9" s="21" t="s">
         <v>101</v>
@@ -4575,7 +4575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30"/>
       <c r="B10" s="21" t="s">
         <v>102</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
       <c r="B11" s="21" t="s">
         <v>103</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="30"/>
       <c r="B12" s="21" t="s">
         <v>104</v>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="30"/>
       <c r="B13" s="21" t="s">
         <v>105</v>
@@ -4651,7 +4651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="30"/>
       <c r="B14" s="21" t="s">
         <v>106</v>
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="30"/>
       <c r="B15" s="21" t="s">
         <v>157</v>
@@ -4689,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="30"/>
       <c r="B16" s="21" t="s">
         <v>158</v>
@@ -4708,7 +4708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="30"/>
       <c r="B17" s="21" t="s">
         <v>108</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
       <c r="B18" s="21" t="s">
         <v>109</v>
@@ -4744,7 +4744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="30"/>
       <c r="B19" s="21" t="s">
         <v>110</v>
@@ -4763,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
       <c r="B20" s="21" t="s">
         <v>111</v>
@@ -4782,7 +4782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="30"/>
       <c r="B21" s="21" t="s">
         <v>112</v>
@@ -4803,7 +4803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="30"/>
       <c r="B22" s="21" t="s">
         <v>113</v>
@@ -4822,7 +4822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="30"/>
       <c r="B23" s="21" t="s">
         <v>114</v>
@@ -4841,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="30"/>
       <c r="B24" s="21" t="s">
         <v>115</v>
@@ -4860,7 +4860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
       <c r="B25" s="21" t="s">
         <v>116</v>
@@ -4879,7 +4879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
       <c r="B26" s="21" t="s">
         <v>117</v>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
       <c r="B27" s="21" t="s">
         <v>118</v>
@@ -4917,7 +4917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
       <c r="B28" s="21" t="s">
         <v>125</v>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="21" t="s">
         <v>125</v>
@@ -4951,7 +4951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="22" t="s">
         <v>32</v>
@@ -4962,7 +4962,7 @@
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="B31" s="22" t="s">
         <v>33</v>
@@ -4973,7 +4973,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
       <c r="B32" s="22" t="s">
         <v>126</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="22" t="s">
         <v>34</v>
@@ -4999,7 +4999,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
       <c r="B34" s="22" t="s">
         <v>119</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="22" t="s">
         <v>120</v>
@@ -5025,7 +5025,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="22" t="s">
         <v>121</v>
@@ -5036,7 +5036,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
       <c r="B37" s="22" t="s">
         <v>35</v>
@@ -5047,7 +5047,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="22" t="s">
         <v>36</v>
@@ -5058,7 +5058,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="22" t="s">
         <v>37</v>
@@ -5069,7 +5069,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
       <c r="B40" s="22" t="s">
         <v>41</v>
@@ -5080,7 +5080,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="22" t="s">
         <v>122</v>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="22" t="s">
         <v>127</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
       <c r="B43" s="22" t="s">
         <v>123</v>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="22" t="s">
         <v>128</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
       <c r="B45" s="22" t="s">
         <v>124</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
       <c r="B46" s="22" t="s">
         <v>129</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
       <c r="B47" s="22" t="s">
         <v>130</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
       <c r="B48" s="22" t="s">
         <v>131</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
       <c r="B49" s="22" t="s">
         <v>38</v>
@@ -5211,7 +5211,7 @@
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="22" t="s">
         <v>39</v>
@@ -5222,7 +5222,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="22" t="s">
         <v>40</v>
@@ -5233,7 +5233,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
       <c r="B52" s="22" t="s">
         <v>132</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="30"/>
       <c r="B53" s="22" t="s">
         <v>133</v>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="30"/>
       <c r="B54" s="22" t="s">
         <v>134</v>
@@ -5280,7 +5280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
       <c r="B55" s="22" t="s">
         <v>42</v>
@@ -5291,7 +5291,7 @@
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="22" t="s">
         <v>43</v>
@@ -5302,7 +5302,7 @@
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="21" t="s">
         <v>135</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
       <c r="B58" s="21" t="s">
         <v>136</v>
@@ -5336,7 +5336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30"/>
       <c r="B59" s="21" t="s">
         <v>137</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="B60" s="21" t="s">
         <v>44</v>
@@ -5362,7 +5362,7 @@
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
       <c r="B61" s="21" t="s">
         <v>138</v>
@@ -5379,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="30"/>
       <c r="B62" s="21" t="s">
         <v>139</v>
@@ -5396,7 +5396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30"/>
       <c r="B63" s="21" t="s">
         <v>140</v>
@@ -5413,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30"/>
       <c r="B64" s="21" t="s">
         <v>45</v>
@@ -5424,7 +5424,7 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30"/>
       <c r="B65" s="21" t="s">
         <v>46</v>
@@ -5435,7 +5435,7 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="30"/>
       <c r="B66" s="21" t="s">
         <v>47</v>
@@ -5446,7 +5446,7 @@
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30"/>
       <c r="B67" s="21" t="s">
         <v>48</v>
@@ -5465,7 +5465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30"/>
       <c r="B68" s="21" t="s">
         <v>49</v>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="21" t="s">
         <v>50</v>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="30"/>
       <c r="B70" s="21" t="s">
         <v>51</v>
@@ -5510,7 +5510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="21" t="s">
         <v>52</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
       <c r="B72" s="21" t="s">
         <v>53</v>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="I72" s="24"/>
     </row>
-    <row r="73" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="21" t="s">
         <v>54</v>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
       <c r="B74" s="21" t="s">
         <v>55</v>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="21" t="s">
         <v>56</v>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="21" t="s">
         <v>57</v>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
       <c r="B77" s="21" t="s">
         <v>58</v>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="I77" s="25"/>
     </row>
-    <row r="78" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
       <c r="B78" s="21" t="s">
         <v>59</v>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="I78" s="25"/>
     </row>
-    <row r="79" spans="1:9" s="16" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" s="16" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="21" t="s">
         <v>60</v>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="21" t="s">
         <v>61</v>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="21" t="s">
         <v>62</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="I81" s="25"/>
     </row>
-    <row r="82" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="21" t="s">
         <v>63</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="I82" s="25"/>
     </row>
-    <row r="83" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="21" t="s">
         <v>64</v>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="I83" s="25"/>
     </row>
-    <row r="84" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="21" t="s">
         <v>65</v>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="I84" s="25"/>
     </row>
-    <row r="85" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="21" t="s">
         <v>66</v>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="I85" s="25"/>
     </row>
-    <row r="86" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="21" t="s">
         <v>67</v>
@@ -5795,7 +5795,7 @@
       </c>
       <c r="I86" s="25"/>
     </row>
-    <row r="87" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
       <c r="B87" s="21" t="s">
         <v>68</v>
@@ -5807,7 +5807,7 @@
       <c r="G87" s="21"/>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
       <c r="B88" s="21" t="s">
         <v>69</v>
@@ -5819,7 +5819,7 @@
       <c r="G88" s="21"/>
       <c r="I88" s="25"/>
     </row>
-    <row r="89" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
       <c r="B89" s="21" t="s">
         <v>70</v>
@@ -5831,7 +5831,7 @@
       <c r="G89" s="21"/>
       <c r="I89" s="25"/>
     </row>
-    <row r="90" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
       <c r="B90" s="21" t="s">
         <v>71</v>
@@ -5843,7 +5843,7 @@
       <c r="G90" s="21"/>
       <c r="I90" s="25"/>
     </row>
-    <row r="91" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
       <c r="B91" s="21" t="s">
         <v>72</v>
@@ -5855,7 +5855,7 @@
       <c r="G91" s="21"/>
       <c r="I91" s="25"/>
     </row>
-    <row r="92" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
       <c r="B92" s="21" t="s">
         <v>73</v>
@@ -5867,7 +5867,7 @@
       <c r="G92" s="21"/>
       <c r="I92" s="25"/>
     </row>
-    <row r="93" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
       <c r="B93" s="21" t="s">
         <v>74</v>
@@ -5879,7 +5879,7 @@
       <c r="G93" s="21"/>
       <c r="I93" s="25"/>
     </row>
-    <row r="94" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
       <c r="B94" s="21" t="s">
         <v>75</v>
@@ -5891,7 +5891,7 @@
       <c r="G94" s="21"/>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
       <c r="B95" s="21" t="s">
         <v>76</v>
@@ -5903,7 +5903,7 @@
       <c r="G95" s="21"/>
       <c r="I95" s="25"/>
     </row>
-    <row r="96" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="30"/>
       <c r="B96" s="21" t="s">
         <v>77</v>
@@ -5915,7 +5915,7 @@
       <c r="G96" s="21"/>
       <c r="I96" s="25"/>
     </row>
-    <row r="97" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="30"/>
       <c r="B97" s="21" t="s">
         <v>78</v>
@@ -5927,7 +5927,7 @@
       <c r="G97" s="21"/>
       <c r="I97" s="25"/>
     </row>
-    <row r="98" spans="1:9" s="16" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
       <c r="B98" s="21" t="s">
         <v>79</v>
@@ -5939,7 +5939,7 @@
       <c r="G98" s="21"/>
       <c r="I98" s="26"/>
     </row>
-    <row r="99" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
       <c r="B99" s="22" t="s">
         <v>80</v>
@@ -5951,7 +5951,7 @@
       <c r="G99" s="22"/>
       <c r="I99" s="26"/>
     </row>
-    <row r="100" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
       <c r="B100" s="22" t="s">
         <v>81</v>
@@ -5963,7 +5963,7 @@
       <c r="G100" s="22"/>
       <c r="I100" s="26"/>
     </row>
-    <row r="101" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
       <c r="B101" s="22" t="s">
         <v>141</v>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="I101" s="26"/>
     </row>
-    <row r="102" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -5989,7 +5989,7 @@
       <c r="G102" s="22"/>
       <c r="I102" s="26"/>
     </row>
-    <row r="103" spans="1:9" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
@@ -5999,7 +5999,7 @@
       <c r="G103" s="22"/>
       <c r="I103" s="26"/>
     </row>
-    <row r="104" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31"/>
       <c r="B104" s="22"/>
       <c r="C104" s="22"/>
@@ -6009,7 +6009,7 @@
       <c r="G104" s="22"/>
       <c r="I104" s="26"/>
     </row>
-    <row r="105" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
         <v>3</v>
       </c>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="I105" s="26"/>
     </row>
-    <row r="106" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30"/>
       <c r="B106" s="22" t="s">
         <v>20</v>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="I106" s="26"/>
     </row>
-    <row r="107" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="30"/>
       <c r="B107" s="22" t="s">
         <v>21</v>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I107" s="26"/>
     </row>
-    <row r="108" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
       <c r="B108" s="22" t="s">
         <v>22</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="I108" s="25"/>
     </row>
-    <row r="109" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
       <c r="B109" s="22" t="s">
         <v>29</v>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="I109" s="25"/>
     </row>
-    <row r="110" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
       <c r="B110" s="22" t="s">
         <v>23</v>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="I110" s="25"/>
     </row>
-    <row r="111" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
       <c r="B111" s="22" t="s">
         <v>24</v>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="I111" s="25"/>
     </row>
-    <row r="112" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30"/>
       <c r="B112" s="22" t="s">
         <v>25</v>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="I112" s="25"/>
     </row>
-    <row r="113" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="22" t="s">
         <v>26</v>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="I113" s="25"/>
     </row>
-    <row r="114" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
       <c r="B114" s="22" t="s">
         <v>27</v>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="I114" s="25"/>
     </row>
-    <row r="115" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
       <c r="B115" s="22" t="s">
         <v>28</v>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="I115" s="25"/>
     </row>
-    <row r="116" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="29" t="s">
         <v>4</v>
       </c>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="I116" s="25"/>
     </row>
-    <row r="117" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
       <c r="B117" s="22" t="s">
         <v>83</v>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="I117" s="25"/>
     </row>
-    <row r="118" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="30"/>
       <c r="B118" s="22" t="s">
         <v>84</v>
@@ -6283,7 +6283,7 @@
       <c r="G118" s="22"/>
       <c r="I118" s="25"/>
     </row>
-    <row r="119" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="30"/>
       <c r="B119" s="22" t="s">
         <v>85</v>
@@ -6299,7 +6299,7 @@
       <c r="G119" s="22"/>
       <c r="I119" s="25"/>
     </row>
-    <row r="120" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
       <c r="B120" s="22" t="s">
         <v>86</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="I120" s="25"/>
     </row>
-    <row r="121" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
       <c r="B121" s="22" t="s">
         <v>87</v>
@@ -6329,7 +6329,7 @@
       <c r="G121" s="22"/>
       <c r="I121" s="25"/>
     </row>
-    <row r="122" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="30"/>
       <c r="B122" s="22" t="s">
         <v>26</v>
@@ -6345,7 +6345,7 @@
       <c r="G122" s="22"/>
       <c r="I122" s="25"/>
     </row>
-    <row r="123" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="30"/>
       <c r="B123" s="22" t="s">
         <v>27</v>
@@ -6361,7 +6361,7 @@
       <c r="G123" s="22"/>
       <c r="I123" s="25"/>
     </row>
-    <row r="124" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="30"/>
       <c r="B124" s="22" t="s">
         <v>88</v>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="I124" s="25"/>
     </row>
-    <row r="125" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="30"/>
       <c r="B125" s="22" t="s">
         <v>89</v>
@@ -6389,7 +6389,7 @@
       <c r="G125" s="22"/>
       <c r="I125" s="25"/>
     </row>
-    <row r="126" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="30"/>
       <c r="B126" s="22" t="s">
         <v>90</v>
@@ -6400,7 +6400,7 @@
       <c r="F126" s="22"/>
       <c r="G126" s="22"/>
     </row>
-    <row r="127" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="30"/>
       <c r="B127" s="22" t="s">
         <v>91</v>
@@ -6411,7 +6411,7 @@
       <c r="F127" s="22"/>
       <c r="G127" s="22"/>
     </row>
-    <row r="128" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="30"/>
       <c r="B128" s="22" t="s">
         <v>92</v>
@@ -6422,7 +6422,7 @@
       <c r="F128" s="22"/>
       <c r="G128" s="22"/>
     </row>
-    <row r="129" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="30"/>
       <c r="B129" s="22" t="s">
         <v>31</v>
@@ -6433,7 +6433,7 @@
       <c r="F129" s="22"/>
       <c r="G129" s="22"/>
     </row>
-    <row r="130" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="30"/>
       <c r="B130" s="22" t="s">
         <v>93</v>
@@ -6444,7 +6444,7 @@
       <c r="F130" s="22"/>
       <c r="G130" s="22"/>
     </row>
-    <row r="131" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="30"/>
       <c r="B131" s="8" t="s">
         <v>94</v>
@@ -6455,7 +6455,7 @@
       <c r="F131" s="22"/>
       <c r="G131" s="22"/>
     </row>
-    <row r="132" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="30"/>
       <c r="B132" s="8"/>
       <c r="C132" s="22"/>
@@ -6464,7 +6464,7 @@
       <c r="F132" s="22"/>
       <c r="G132" s="22"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="31"/>
       <c r="C133" s="22"/>
       <c r="D133" s="22"/>
@@ -6472,7 +6472,7 @@
       <c r="F133" s="22"/>
       <c r="G133" s="22"/>
     </row>
-    <row r="134" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="27" t="s">
         <v>5</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="21" t="s">
         <v>144</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="21" t="s">
         <v>145</v>
@@ -6517,7 +6517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="21" t="s">
         <v>146</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="21" t="s">
         <v>147</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="21" t="s">
         <v>148</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="21" t="s">
         <v>149</v>
@@ -6571,7 +6571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="21" t="s">
         <v>150</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="21" t="s">
         <v>151</v>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="21" t="s">
         <v>152</v>
@@ -6614,7 +6614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="21" t="s">
         <v>153</v>
@@ -6627,7 +6627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="21" t="s">
         <v>154</v>
@@ -6640,7 +6640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="21" t="s">
         <v>155</v>
@@ -6653,7 +6653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="21" t="s">
         <v>156</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="27" t="s">
         <v>6</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="21" t="s">
         <v>160</v>
@@ -6696,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="21" t="s">
         <v>161</v>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="21" t="s">
         <v>163</v>
@@ -6722,7 +6722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="21" t="s">
         <v>164</v>
@@ -6735,7 +6735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="21" t="s">
         <v>165</v>
@@ -6748,7 +6748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="21" t="s">
         <v>166</v>
